--- a/review_features.xlsx
+++ b/review_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB028A1E-03B1-44FF-833E-1E60E06FF310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3CE82-8003-47E9-9833-5461342F8B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study selection" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>paperid</t>
   </si>
@@ -223,6 +223,35 @@
   </si>
   <si>
     <t>A network consists of one convolutional layer with max and min pooling, two fully connected layers and an output node. Within the network structure, feature learning and regression are integrated into one optimization process, which leads to a more effective model for estimating image quality.</t>
+  </si>
+  <si>
+    <t>@inproceedings{kang2014convolutional,
+  title={Convolutional neural networks for no-reference image quality assessment},
+  author={Kang, Le and Ye, Peng and Li, Yi and Doermann, David},
+  booktitle={Proceedings of the IEEE conference on computer vision and pattern recognition},
+  pages={1733--1740},
+  year={2014}
+}</t>
+  </si>
+  <si>
+    <t>obj013</t>
+  </si>
+  <si>
+    <t>@inproceedings{mariano2002performance,
+  title={Performance evaluation of object detection algorithms},
+  author={Mariano, Vladimir Y and Min, Junghye and Park, Jin-Hyeong and Kasturi, Rangachar and Mihalcik, David and Li, Huiping and Doermann, David and Drayer, Thomas},
+  booktitle={Object recognition supported by user interaction for service robots},
+  volume={3},
+  pages={965--969},
+  year={2002},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/220928471_Performance_Evaluation_of_Object_Detection_Algorithms</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6909620</t>
   </si>
 </sst>
 </file>
@@ -810,9 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -886,14 +915,24 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>142</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -916,14 +955,24 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="5">
+        <v>407</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="38"/>
+      <c r="H5" s="38" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -5120,9 +5169,11 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{F9E29345-CAC8-4692-90A6-C417DBF95A1E}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{6E6B66B7-5731-4D1C-9AF9-61ECFE162BF6}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{4034E557-A9E3-4DAF-A21F-6139D59B6892}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7FF76A51-942E-4084-8322-5507FD4F61DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5130,7 +5181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>

--- a/review_features.xlsx
+++ b/review_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3CE82-8003-47E9-9833-5461342F8B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4330FBA8-7409-45FB-95A0-6800B98A1CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="2628" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study selection" sheetId="1" r:id="rId1"/>
@@ -144,14 +144,6 @@
     <t>Using top-down (or feedback) connections to propagate information downwards, which is adopted in the convolutional deep belief networks. Recurrent Convolutional Neural Network(RCNN) for static object recognition.</t>
   </si>
   <si>
-    <t>@inproceedings{liang2015recurrent,'[review_features.xlsx]study selection'!$D$54 title={Recurrent convolutional neural network for object recognition},
-author={Liang, Ming and Hu, Xiaolin},
-booktitle={Proceedings of the IEEE conference on computer vision and pattern recognition},
-  pages={3367--3375},
-  year={2015}
-}</t>
-  </si>
-  <si>
     <t>http://openaccess.thecvf.com/content_cvpr_2015/papers/Liang_Recurrent_Convolutional_Neural_2015_CVPR_paper.pdf</t>
   </si>
   <si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6909620</t>
+  </si>
+  <si>
+    <t>@inproceedings{liang2015recurrent,                      title={Recurrent convolutional neural network for object recognition},
+author={Liang, Ming and Hu, Xiaolin},
+booktitle={Proceedings of the IEEE conference on computer vision and pattern recognition},
+  pages={3367--3375},
+  year={2015}
+}</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -916,10 +916,10 @@
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>2002</v>
@@ -931,7 +931,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1">
@@ -939,7 +939,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5">
         <v>2015</v>
@@ -951,15 +951,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="38" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5">
         <v>2014</v>
@@ -971,7 +971,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
@@ -979,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>2016</v>
@@ -991,7 +991,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="30" customHeight="1">
@@ -5279,27 +5279,27 @@
     </row>
     <row r="5" spans="2:10" ht="40.049999999999997" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>46</v>
-      </c>
       <c r="J5" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5327,27 +5327,27 @@
     </row>
     <row r="7" spans="2:10" ht="40.049999999999997" customHeight="1">
       <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="40.049999999999997" customHeight="1">
